--- a/excel/table.xlsx
+++ b/excel/table.xlsx
@@ -3,19 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4F3B91-56F9-4CAE-8AB9-47DCA7687978}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16468DF-B70F-4655-BD62-763A7C007BFC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6090" windowWidth="19200" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="9090" windowWidth="19200" windowHeight="11640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="80">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,14 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>obj[][]:[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj[][]:[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>单元格尺寸(作为性能优化使用，必填)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,14 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>obj:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj:int[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id_int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -277,6 +262,64 @@
   </si>
   <si>
     <t>id_obj:id_int_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj[][][]:[2][3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj[][][]:[1][1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id_s2int</t>
+  </si>
+  <si>
+    <t>id_s2int_a</t>
+  </si>
+  <si>
+    <t>id_s2string</t>
+  </si>
+  <si>
+    <t>id_s2string_a</t>
+  </si>
+  <si>
+    <t>id_s2obj</t>
+  </si>
+  <si>
+    <t>id_s2obj:id_s2int</t>
+  </si>
+  <si>
+    <t>id_s2obj:id_s2int_1</t>
+  </si>
+  <si>
+    <t>id_s2obj:id_s2int_a</t>
+  </si>
+  <si>
+    <t>id_s2obj:id_s2int_aa</t>
+  </si>
+  <si>
+    <t>id_s2obj:id_s2string</t>
+  </si>
+  <si>
+    <t>id_s2obj:id_s2string_a</t>
+  </si>
+  <si>
+    <t>id_s2int_aa</t>
+  </si>
+  <si>
+    <t>id_s2string_aa</t>
+  </si>
+  <si>
+    <t>id_s2int_aaa</t>
+  </si>
+  <si>
+    <t>obj[][][]:[1][3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj[][][]:[2][1]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -711,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -728,19 +771,19 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1">
+        <v>67</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1">
-        <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -771,7 +814,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -782,10 +825,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -802,10 +845,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1">
         <v>13</v>
@@ -819,66 +862,66 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
@@ -892,7 +935,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>4</v>
@@ -906,7 +949,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>6</v>
@@ -920,7 +963,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>6</v>
@@ -934,7 +977,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>6</v>
@@ -948,10 +991,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D15" s="1">
         <v>55</v>
@@ -962,10 +1005,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D16" s="1">
         <v>123</v>
@@ -976,10 +1019,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D17" s="1">
         <v>333</v>
@@ -990,10 +1033,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D18" s="1">
         <v>33221</v>
@@ -1004,66 +1047,66 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
@@ -1080,10 +1123,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D24" s="1">
         <v>2</v>
@@ -1103,22 +1146,22 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H25" s="1">
         <v>22</v>
@@ -1126,10 +1169,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
@@ -1143,10 +1186,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D27" s="1">
         <v>321</v>
@@ -1158,779 +1201,779 @@
         <v>2</v>
       </c>
     </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2</v>
+      </c>
+      <c r="G31" s="1">
+        <v>2</v>
+      </c>
+    </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D33" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D34" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E34" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G34" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D35" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E35" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F35" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G35" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D36" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E36" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F36" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G36" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D37" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E37" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F37" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G37" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D38" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E38" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F38" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G38" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D39" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E39" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F39" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G39" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D40" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E40" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F40" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G40" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E41" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F41" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G41" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D42" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E42" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F42" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G42" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D43" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E43" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F43" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G43" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D44" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E44" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F44" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G44" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D45" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E45" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F45" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G45" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D46" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E46" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F46" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G46" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D47" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E47" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F47" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G47" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" s="1">
-        <v>6</v>
-      </c>
-      <c r="E48" s="1">
-        <v>6</v>
-      </c>
-      <c r="F48" s="1">
-        <v>6</v>
-      </c>
-      <c r="G48" s="1">
-        <v>6</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D49" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E49" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F49" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G49" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D50" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E50" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F50" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G50" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D51" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E51" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F51" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G51" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D53" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G53" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D54" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E54" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F54" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G54" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D55" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E55" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F55" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G55" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D56" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E56" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F56" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G56" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D57" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E57" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F57" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G57" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D58" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E58" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F58" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G58" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D59" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E59" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F59" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G59" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E60" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F60" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G60" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D61" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E61" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F61" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G61" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E62" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F62" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G62" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E63" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F63" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G63" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D64" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E64" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F64" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G64" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D65" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E65" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F65" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G65" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D66" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E66" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F66" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G66" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D67" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E67" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F67" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G67" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A68" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D68" s="1">
-        <v>6</v>
-      </c>
-      <c r="E68" s="1">
-        <v>6</v>
-      </c>
-      <c r="F68" s="1">
-        <v>6</v>
-      </c>
-      <c r="G68" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A69" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D69" s="1">
-        <v>7</v>
-      </c>
-      <c r="E69" s="1">
-        <v>7</v>
-      </c>
-      <c r="F69" s="1">
-        <v>7</v>
-      </c>
-      <c r="G69" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A70" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D70" s="1">
-        <v>8</v>
-      </c>
-      <c r="E70" s="1">
-        <v>8</v>
-      </c>
-      <c r="F70" s="1">
-        <v>8</v>
-      </c>
-      <c r="G70" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A71" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D71" s="1">
-        <v>9</v>
-      </c>
-      <c r="E71" s="1">
-        <v>9</v>
-      </c>
-      <c r="F71" s="1">
-        <v>9</v>
-      </c>
-      <c r="G71" s="1">
         <v>9</v>
       </c>
     </row>
@@ -1939,4 +1982,1411 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0899622D-3967-416F-AA70-E6B0CDCF380C}">
+  <dimension ref="A1:H67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="38" customWidth="1"/>
+    <col min="2" max="2" width="19.75" customWidth="1"/>
+    <col min="4" max="4" width="16.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1">
+        <v>67</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1">
+        <v>32</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1">
+        <v>45</v>
+      </c>
+      <c r="F5" s="1">
+        <v>123</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>23</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1">
+        <v>55</v>
+      </c>
+      <c r="E14" s="1">
+        <v>6</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1">
+        <v>55</v>
+      </c>
+      <c r="E15" s="1">
+        <v>67</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1">
+        <v>123</v>
+      </c>
+      <c r="E16" s="1">
+        <v>24</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1">
+        <v>333</v>
+      </c>
+      <c r="E17" s="1">
+        <v>74</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1">
+        <v>33221</v>
+      </c>
+      <c r="E18" s="1">
+        <v>7233</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1">
+        <v>5</v>
+      </c>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>3</v>
+      </c>
+      <c r="F24" s="1">
+        <v>5</v>
+      </c>
+      <c r="G24" s="1">
+        <v>4</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>23</v>
+      </c>
+      <c r="F26" s="1">
+        <v>3</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1">
+        <v>321</v>
+      </c>
+      <c r="E27" s="1">
+        <v>3</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1">
+        <v>2</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2</v>
+      </c>
+      <c r="G31" s="1">
+        <v>2</v>
+      </c>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1">
+        <v>2</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2</v>
+      </c>
+      <c r="G33" s="1">
+        <v>2</v>
+      </c>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1">
+        <v>3</v>
+      </c>
+      <c r="E34" s="1">
+        <v>3</v>
+      </c>
+      <c r="F34" s="1">
+        <v>3</v>
+      </c>
+      <c r="G34" s="1">
+        <v>3</v>
+      </c>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1">
+        <v>4</v>
+      </c>
+      <c r="E35" s="1">
+        <v>4</v>
+      </c>
+      <c r="F35" s="1">
+        <v>4</v>
+      </c>
+      <c r="G35" s="1">
+        <v>4</v>
+      </c>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1">
+        <v>5</v>
+      </c>
+      <c r="E36" s="1">
+        <v>5</v>
+      </c>
+      <c r="F36" s="1">
+        <v>5</v>
+      </c>
+      <c r="G36" s="1">
+        <v>5</v>
+      </c>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1">
+        <v>6</v>
+      </c>
+      <c r="E37" s="1">
+        <v>6</v>
+      </c>
+      <c r="F37" s="1">
+        <v>6</v>
+      </c>
+      <c r="G37" s="1">
+        <v>6</v>
+      </c>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1">
+        <v>7</v>
+      </c>
+      <c r="E38" s="1">
+        <v>7</v>
+      </c>
+      <c r="F38" s="1">
+        <v>7</v>
+      </c>
+      <c r="G38" s="1">
+        <v>7</v>
+      </c>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1">
+        <v>8</v>
+      </c>
+      <c r="E39" s="1">
+        <v>8</v>
+      </c>
+      <c r="F39" s="1">
+        <v>8</v>
+      </c>
+      <c r="G39" s="1">
+        <v>8</v>
+      </c>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1">
+        <v>2</v>
+      </c>
+      <c r="E40" s="1">
+        <v>2</v>
+      </c>
+      <c r="F40" s="1">
+        <v>2</v>
+      </c>
+      <c r="G40" s="1">
+        <v>2</v>
+      </c>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1">
+        <v>3</v>
+      </c>
+      <c r="E41" s="1">
+        <v>3</v>
+      </c>
+      <c r="F41" s="1">
+        <v>3</v>
+      </c>
+      <c r="G41" s="1">
+        <v>3</v>
+      </c>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1">
+        <v>4</v>
+      </c>
+      <c r="E42" s="1">
+        <v>4</v>
+      </c>
+      <c r="F42" s="1">
+        <v>4</v>
+      </c>
+      <c r="G42" s="1">
+        <v>4</v>
+      </c>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1">
+        <v>5</v>
+      </c>
+      <c r="E43" s="1">
+        <v>5</v>
+      </c>
+      <c r="F43" s="1">
+        <v>5</v>
+      </c>
+      <c r="G43" s="1">
+        <v>5</v>
+      </c>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1">
+        <v>6</v>
+      </c>
+      <c r="E44" s="1">
+        <v>6</v>
+      </c>
+      <c r="F44" s="1">
+        <v>6</v>
+      </c>
+      <c r="G44" s="1">
+        <v>6</v>
+      </c>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1">
+        <v>7</v>
+      </c>
+      <c r="E45" s="1">
+        <v>7</v>
+      </c>
+      <c r="F45" s="1">
+        <v>7</v>
+      </c>
+      <c r="G45" s="1">
+        <v>7</v>
+      </c>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1">
+        <v>8</v>
+      </c>
+      <c r="E46" s="1">
+        <v>8</v>
+      </c>
+      <c r="F46" s="1">
+        <v>8</v>
+      </c>
+      <c r="G46" s="1">
+        <v>8</v>
+      </c>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1">
+        <v>9</v>
+      </c>
+      <c r="E47" s="1">
+        <v>9</v>
+      </c>
+      <c r="F47" s="1">
+        <v>9</v>
+      </c>
+      <c r="G47" s="1">
+        <v>9</v>
+      </c>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1</v>
+      </c>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1</v>
+      </c>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1">
+        <v>2</v>
+      </c>
+      <c r="E51" s="1">
+        <v>2</v>
+      </c>
+      <c r="F51" s="1">
+        <v>2</v>
+      </c>
+      <c r="G51" s="1">
+        <v>2</v>
+      </c>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1</v>
+      </c>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1">
+        <v>2</v>
+      </c>
+      <c r="E53" s="1">
+        <v>2</v>
+      </c>
+      <c r="F53" s="1">
+        <v>2</v>
+      </c>
+      <c r="G53" s="1">
+        <v>2</v>
+      </c>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1">
+        <v>3</v>
+      </c>
+      <c r="E54" s="1">
+        <v>3</v>
+      </c>
+      <c r="F54" s="1">
+        <v>3</v>
+      </c>
+      <c r="G54" s="1">
+        <v>3</v>
+      </c>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1">
+        <v>4</v>
+      </c>
+      <c r="E55" s="1">
+        <v>4</v>
+      </c>
+      <c r="F55" s="1">
+        <v>4</v>
+      </c>
+      <c r="G55" s="1">
+        <v>4</v>
+      </c>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1">
+        <v>5</v>
+      </c>
+      <c r="E56" s="1">
+        <v>5</v>
+      </c>
+      <c r="F56" s="1">
+        <v>5</v>
+      </c>
+      <c r="G56" s="1">
+        <v>5</v>
+      </c>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1">
+        <v>6</v>
+      </c>
+      <c r="E57" s="1">
+        <v>6</v>
+      </c>
+      <c r="F57" s="1">
+        <v>6</v>
+      </c>
+      <c r="G57" s="1">
+        <v>6</v>
+      </c>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1">
+        <v>7</v>
+      </c>
+      <c r="E58" s="1">
+        <v>7</v>
+      </c>
+      <c r="F58" s="1">
+        <v>7</v>
+      </c>
+      <c r="G58" s="1">
+        <v>7</v>
+      </c>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1">
+        <v>8</v>
+      </c>
+      <c r="E59" s="1">
+        <v>8</v>
+      </c>
+      <c r="F59" s="1">
+        <v>8</v>
+      </c>
+      <c r="G59" s="1">
+        <v>8</v>
+      </c>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1">
+        <v>2</v>
+      </c>
+      <c r="E60" s="1">
+        <v>2</v>
+      </c>
+      <c r="F60" s="1">
+        <v>2</v>
+      </c>
+      <c r="G60" s="1">
+        <v>2</v>
+      </c>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1">
+        <v>3</v>
+      </c>
+      <c r="E61" s="1">
+        <v>3</v>
+      </c>
+      <c r="F61" s="1">
+        <v>3</v>
+      </c>
+      <c r="G61" s="1">
+        <v>3</v>
+      </c>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1">
+        <v>4</v>
+      </c>
+      <c r="E62" s="1">
+        <v>4</v>
+      </c>
+      <c r="F62" s="1">
+        <v>4</v>
+      </c>
+      <c r="G62" s="1">
+        <v>4</v>
+      </c>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1">
+        <v>5</v>
+      </c>
+      <c r="E63" s="1">
+        <v>5</v>
+      </c>
+      <c r="F63" s="1">
+        <v>5</v>
+      </c>
+      <c r="G63" s="1">
+        <v>5</v>
+      </c>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1">
+        <v>6</v>
+      </c>
+      <c r="E64" s="1">
+        <v>6</v>
+      </c>
+      <c r="F64" s="1">
+        <v>6</v>
+      </c>
+      <c r="G64" s="1">
+        <v>6</v>
+      </c>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1">
+        <v>7</v>
+      </c>
+      <c r="E65" s="1">
+        <v>7</v>
+      </c>
+      <c r="F65" s="1">
+        <v>7</v>
+      </c>
+      <c r="G65" s="1">
+        <v>7</v>
+      </c>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1">
+        <v>8</v>
+      </c>
+      <c r="E66" s="1">
+        <v>8</v>
+      </c>
+      <c r="F66" s="1">
+        <v>8</v>
+      </c>
+      <c r="G66" s="1">
+        <v>8</v>
+      </c>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1">
+        <v>9</v>
+      </c>
+      <c r="E67" s="1">
+        <v>9</v>
+      </c>
+      <c r="F67" s="1">
+        <v>9</v>
+      </c>
+      <c r="G67" s="1">
+        <v>9</v>
+      </c>
+      <c r="H67" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excel/table.xlsx
+++ b/excel/table.xlsx
@@ -3,20 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16468DF-B70F-4655-BD62-763A7C007BFC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2AAECF-932E-4867-B5C8-26F824149CAD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9090" windowWidth="19200" windowHeight="11640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="10290" windowWidth="19200" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="65">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -273,53 +273,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id_s2int</t>
-  </si>
-  <si>
-    <t>id_s2int_a</t>
-  </si>
-  <si>
-    <t>id_s2string</t>
-  </si>
-  <si>
-    <t>id_s2string_a</t>
-  </si>
-  <si>
-    <t>id_s2obj</t>
-  </si>
-  <si>
-    <t>id_s2obj:id_s2int</t>
-  </si>
-  <si>
-    <t>id_s2obj:id_s2int_1</t>
-  </si>
-  <si>
-    <t>id_s2obj:id_s2int_a</t>
-  </si>
-  <si>
-    <t>id_s2obj:id_s2int_aa</t>
-  </si>
-  <si>
-    <t>id_s2obj:id_s2string</t>
-  </si>
-  <si>
-    <t>id_s2obj:id_s2string_a</t>
-  </si>
-  <si>
-    <t>id_s2int_aa</t>
-  </si>
-  <si>
-    <t>id_s2string_aa</t>
-  </si>
-  <si>
-    <t>id_s2int_aaa</t>
-  </si>
-  <si>
-    <t>obj[][][]:[1][3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj[][][]:[2][1]</t>
+    <t>id_intaaa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -756,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1240,7 +1194,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" s="1">
         <v>1</v>
@@ -1260,7 +1214,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31" s="1">
         <v>2</v>
@@ -1280,10 +1234,10 @@
         <v>1</v>
       </c>
       <c r="E32" s="1">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="F32" s="1">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="G32" s="1">
         <v>1</v>
@@ -1320,7 +1274,7 @@
         <v>3</v>
       </c>
       <c r="E34" s="1">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="F34" s="1">
         <v>3</v>
@@ -1340,7 +1294,7 @@
         <v>4</v>
       </c>
       <c r="E35" s="1">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="F35" s="1">
         <v>4</v>
@@ -1363,10 +1317,10 @@
         <v>5</v>
       </c>
       <c r="F36" s="1">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="G36" s="1">
-        <v>5</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
@@ -1446,7 +1400,7 @@
         <v>2</v>
       </c>
       <c r="G40" s="1">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
@@ -1460,13 +1414,13 @@
         <v>3</v>
       </c>
       <c r="E41" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F41" s="1">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="G41" s="1">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
@@ -1480,13 +1434,13 @@
         <v>4</v>
       </c>
       <c r="E42" s="1">
-        <v>4</v>
+        <v>234</v>
       </c>
       <c r="F42" s="1">
         <v>4</v>
       </c>
       <c r="G42" s="1">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
@@ -1560,7 +1514,7 @@
         <v>8</v>
       </c>
       <c r="E46" s="1">
-        <v>8</v>
+        <v>234</v>
       </c>
       <c r="F46" s="1">
         <v>8</v>
@@ -1648,13 +1602,13 @@
         <v>2</v>
       </c>
       <c r="E51" s="1">
-        <v>2</v>
+        <v>312</v>
       </c>
       <c r="F51" s="1">
         <v>2</v>
       </c>
       <c r="G51" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
@@ -1671,7 +1625,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52" s="1">
         <v>1</v>
@@ -1708,7 +1662,7 @@
         <v>3</v>
       </c>
       <c r="E54" s="1">
-        <v>3</v>
+        <v>312</v>
       </c>
       <c r="F54" s="1">
         <v>3</v>
@@ -1771,7 +1725,7 @@
         <v>6</v>
       </c>
       <c r="F57" s="1">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="G57" s="1">
         <v>6</v>
@@ -1788,7 +1742,7 @@
         <v>7</v>
       </c>
       <c r="E58" s="1">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F58" s="1">
         <v>7</v>
@@ -1845,13 +1799,13 @@
         <v>13</v>
       </c>
       <c r="D61" s="1">
-        <v>3</v>
+        <v>64335</v>
       </c>
       <c r="E61" s="1">
         <v>3</v>
       </c>
       <c r="F61" s="1">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="G61" s="1">
         <v>3</v>
@@ -1874,7 +1828,7 @@
         <v>4</v>
       </c>
       <c r="G62" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
@@ -1888,10 +1842,10 @@
         <v>5</v>
       </c>
       <c r="E63" s="1">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="F63" s="1">
-        <v>5</v>
+        <v>453</v>
       </c>
       <c r="G63" s="1">
         <v>5</v>
@@ -1985,19 +1939,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0899622D-3967-416F-AA70-E6B0CDCF380C}">
-  <dimension ref="A1:H67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D1453E7-482A-4547-B9EE-5B8C0AA38546}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="38" customWidth="1"/>
-    <col min="2" max="2" width="19.75" customWidth="1"/>
-    <col min="4" max="4" width="16.625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
@@ -2007,7 +1956,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="1">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>9</v>
@@ -2060,1330 +2009,6 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>23</v>
-      </c>
-      <c r="F4" s="1">
-        <v>4</v>
-      </c>
-      <c r="G4" s="1">
-        <v>5</v>
-      </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1">
-        <v>45</v>
-      </c>
-      <c r="F5" s="1">
-        <v>123</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>5</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1">
-        <v>4</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>23</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1">
-        <v>4</v>
-      </c>
-      <c r="E13" s="1">
-        <v>4</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1">
-        <v>55</v>
-      </c>
-      <c r="E14" s="1">
-        <v>6</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1">
-        <v>55</v>
-      </c>
-      <c r="E15" s="1">
-        <v>67</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1">
-        <v>123</v>
-      </c>
-      <c r="E16" s="1">
-        <v>24</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1">
-        <v>333</v>
-      </c>
-      <c r="E17" s="1">
-        <v>74</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1">
-        <v>33221</v>
-      </c>
-      <c r="E18" s="1">
-        <v>7233</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1">
-        <v>2</v>
-      </c>
-      <c r="F23" s="1">
-        <v>3</v>
-      </c>
-      <c r="G23" s="1">
-        <v>5</v>
-      </c>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1">
-        <v>2</v>
-      </c>
-      <c r="E24" s="1">
-        <v>3</v>
-      </c>
-      <c r="F24" s="1">
-        <v>5</v>
-      </c>
-      <c r="G24" s="1">
-        <v>4</v>
-      </c>
-      <c r="H24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1">
-        <v>23</v>
-      </c>
-      <c r="F26" s="1">
-        <v>3</v>
-      </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1">
-        <v>321</v>
-      </c>
-      <c r="E27" s="1">
-        <v>3</v>
-      </c>
-      <c r="F27" s="1">
-        <v>2</v>
-      </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1">
-        <v>1</v>
-      </c>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1</v>
-      </c>
-      <c r="G30" s="1">
-        <v>1</v>
-      </c>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1">
-        <v>2</v>
-      </c>
-      <c r="E31" s="1">
-        <v>2</v>
-      </c>
-      <c r="F31" s="1">
-        <v>2</v>
-      </c>
-      <c r="G31" s="1">
-        <v>2</v>
-      </c>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1</v>
-      </c>
-      <c r="F32" s="1">
-        <v>1</v>
-      </c>
-      <c r="G32" s="1">
-        <v>1</v>
-      </c>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1">
-        <v>2</v>
-      </c>
-      <c r="E33" s="1">
-        <v>2</v>
-      </c>
-      <c r="F33" s="1">
-        <v>2</v>
-      </c>
-      <c r="G33" s="1">
-        <v>2</v>
-      </c>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1">
-        <v>3</v>
-      </c>
-      <c r="E34" s="1">
-        <v>3</v>
-      </c>
-      <c r="F34" s="1">
-        <v>3</v>
-      </c>
-      <c r="G34" s="1">
-        <v>3</v>
-      </c>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1">
-        <v>4</v>
-      </c>
-      <c r="E35" s="1">
-        <v>4</v>
-      </c>
-      <c r="F35" s="1">
-        <v>4</v>
-      </c>
-      <c r="G35" s="1">
-        <v>4</v>
-      </c>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1">
-        <v>5</v>
-      </c>
-      <c r="E36" s="1">
-        <v>5</v>
-      </c>
-      <c r="F36" s="1">
-        <v>5</v>
-      </c>
-      <c r="G36" s="1">
-        <v>5</v>
-      </c>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1">
-        <v>6</v>
-      </c>
-      <c r="E37" s="1">
-        <v>6</v>
-      </c>
-      <c r="F37" s="1">
-        <v>6</v>
-      </c>
-      <c r="G37" s="1">
-        <v>6</v>
-      </c>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1">
-        <v>7</v>
-      </c>
-      <c r="E38" s="1">
-        <v>7</v>
-      </c>
-      <c r="F38" s="1">
-        <v>7</v>
-      </c>
-      <c r="G38" s="1">
-        <v>7</v>
-      </c>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1">
-        <v>8</v>
-      </c>
-      <c r="E39" s="1">
-        <v>8</v>
-      </c>
-      <c r="F39" s="1">
-        <v>8</v>
-      </c>
-      <c r="G39" s="1">
-        <v>8</v>
-      </c>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1">
-        <v>2</v>
-      </c>
-      <c r="E40" s="1">
-        <v>2</v>
-      </c>
-      <c r="F40" s="1">
-        <v>2</v>
-      </c>
-      <c r="G40" s="1">
-        <v>2</v>
-      </c>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1">
-        <v>3</v>
-      </c>
-      <c r="E41" s="1">
-        <v>3</v>
-      </c>
-      <c r="F41" s="1">
-        <v>3</v>
-      </c>
-      <c r="G41" s="1">
-        <v>3</v>
-      </c>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1">
-        <v>4</v>
-      </c>
-      <c r="E42" s="1">
-        <v>4</v>
-      </c>
-      <c r="F42" s="1">
-        <v>4</v>
-      </c>
-      <c r="G42" s="1">
-        <v>4</v>
-      </c>
-      <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1">
-        <v>5</v>
-      </c>
-      <c r="E43" s="1">
-        <v>5</v>
-      </c>
-      <c r="F43" s="1">
-        <v>5</v>
-      </c>
-      <c r="G43" s="1">
-        <v>5</v>
-      </c>
-      <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1">
-        <v>6</v>
-      </c>
-      <c r="E44" s="1">
-        <v>6</v>
-      </c>
-      <c r="F44" s="1">
-        <v>6</v>
-      </c>
-      <c r="G44" s="1">
-        <v>6</v>
-      </c>
-      <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A45" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1">
-        <v>7</v>
-      </c>
-      <c r="E45" s="1">
-        <v>7</v>
-      </c>
-      <c r="F45" s="1">
-        <v>7</v>
-      </c>
-      <c r="G45" s="1">
-        <v>7</v>
-      </c>
-      <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1">
-        <v>8</v>
-      </c>
-      <c r="E46" s="1">
-        <v>8</v>
-      </c>
-      <c r="F46" s="1">
-        <v>8</v>
-      </c>
-      <c r="G46" s="1">
-        <v>8</v>
-      </c>
-      <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A47" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1">
-        <v>9</v>
-      </c>
-      <c r="E47" s="1">
-        <v>9</v>
-      </c>
-      <c r="F47" s="1">
-        <v>9</v>
-      </c>
-      <c r="G47" s="1">
-        <v>9</v>
-      </c>
-      <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A48" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1">
-        <v>1</v>
-      </c>
-      <c r="E49" s="1">
-        <v>1</v>
-      </c>
-      <c r="F49" s="1">
-        <v>1</v>
-      </c>
-      <c r="G49" s="1">
-        <v>1</v>
-      </c>
-      <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1">
-        <v>1</v>
-      </c>
-      <c r="E50" s="1">
-        <v>1</v>
-      </c>
-      <c r="F50" s="1">
-        <v>1</v>
-      </c>
-      <c r="G50" s="1">
-        <v>1</v>
-      </c>
-      <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1">
-        <v>2</v>
-      </c>
-      <c r="E51" s="1">
-        <v>2</v>
-      </c>
-      <c r="F51" s="1">
-        <v>2</v>
-      </c>
-      <c r="G51" s="1">
-        <v>2</v>
-      </c>
-      <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A52" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1">
-        <v>1</v>
-      </c>
-      <c r="E52" s="1">
-        <v>1</v>
-      </c>
-      <c r="F52" s="1">
-        <v>1</v>
-      </c>
-      <c r="G52" s="1">
-        <v>1</v>
-      </c>
-      <c r="H52" s="1"/>
-    </row>
-    <row r="53" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A53" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1">
-        <v>2</v>
-      </c>
-      <c r="E53" s="1">
-        <v>2</v>
-      </c>
-      <c r="F53" s="1">
-        <v>2</v>
-      </c>
-      <c r="G53" s="1">
-        <v>2</v>
-      </c>
-      <c r="H53" s="1"/>
-    </row>
-    <row r="54" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A54" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1">
-        <v>3</v>
-      </c>
-      <c r="E54" s="1">
-        <v>3</v>
-      </c>
-      <c r="F54" s="1">
-        <v>3</v>
-      </c>
-      <c r="G54" s="1">
-        <v>3</v>
-      </c>
-      <c r="H54" s="1"/>
-    </row>
-    <row r="55" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1">
-        <v>4</v>
-      </c>
-      <c r="E55" s="1">
-        <v>4</v>
-      </c>
-      <c r="F55" s="1">
-        <v>4</v>
-      </c>
-      <c r="G55" s="1">
-        <v>4</v>
-      </c>
-      <c r="H55" s="1"/>
-    </row>
-    <row r="56" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A56" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1">
-        <v>5</v>
-      </c>
-      <c r="E56" s="1">
-        <v>5</v>
-      </c>
-      <c r="F56" s="1">
-        <v>5</v>
-      </c>
-      <c r="G56" s="1">
-        <v>5</v>
-      </c>
-      <c r="H56" s="1"/>
-    </row>
-    <row r="57" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A57" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1">
-        <v>6</v>
-      </c>
-      <c r="E57" s="1">
-        <v>6</v>
-      </c>
-      <c r="F57" s="1">
-        <v>6</v>
-      </c>
-      <c r="G57" s="1">
-        <v>6</v>
-      </c>
-      <c r="H57" s="1"/>
-    </row>
-    <row r="58" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A58" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1">
-        <v>7</v>
-      </c>
-      <c r="E58" s="1">
-        <v>7</v>
-      </c>
-      <c r="F58" s="1">
-        <v>7</v>
-      </c>
-      <c r="G58" s="1">
-        <v>7</v>
-      </c>
-      <c r="H58" s="1"/>
-    </row>
-    <row r="59" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A59" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1">
-        <v>8</v>
-      </c>
-      <c r="E59" s="1">
-        <v>8</v>
-      </c>
-      <c r="F59" s="1">
-        <v>8</v>
-      </c>
-      <c r="G59" s="1">
-        <v>8</v>
-      </c>
-      <c r="H59" s="1"/>
-    </row>
-    <row r="60" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A60" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1">
-        <v>2</v>
-      </c>
-      <c r="E60" s="1">
-        <v>2</v>
-      </c>
-      <c r="F60" s="1">
-        <v>2</v>
-      </c>
-      <c r="G60" s="1">
-        <v>2</v>
-      </c>
-      <c r="H60" s="1"/>
-    </row>
-    <row r="61" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A61" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1">
-        <v>3</v>
-      </c>
-      <c r="E61" s="1">
-        <v>3</v>
-      </c>
-      <c r="F61" s="1">
-        <v>3</v>
-      </c>
-      <c r="G61" s="1">
-        <v>3</v>
-      </c>
-      <c r="H61" s="1"/>
-    </row>
-    <row r="62" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A62" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1">
-        <v>4</v>
-      </c>
-      <c r="E62" s="1">
-        <v>4</v>
-      </c>
-      <c r="F62" s="1">
-        <v>4</v>
-      </c>
-      <c r="G62" s="1">
-        <v>4</v>
-      </c>
-      <c r="H62" s="1"/>
-    </row>
-    <row r="63" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A63" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1">
-        <v>5</v>
-      </c>
-      <c r="E63" s="1">
-        <v>5</v>
-      </c>
-      <c r="F63" s="1">
-        <v>5</v>
-      </c>
-      <c r="G63" s="1">
-        <v>5</v>
-      </c>
-      <c r="H63" s="1"/>
-    </row>
-    <row r="64" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A64" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1">
-        <v>6</v>
-      </c>
-      <c r="E64" s="1">
-        <v>6</v>
-      </c>
-      <c r="F64" s="1">
-        <v>6</v>
-      </c>
-      <c r="G64" s="1">
-        <v>6</v>
-      </c>
-      <c r="H64" s="1"/>
-    </row>
-    <row r="65" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1">
-        <v>7</v>
-      </c>
-      <c r="E65" s="1">
-        <v>7</v>
-      </c>
-      <c r="F65" s="1">
-        <v>7</v>
-      </c>
-      <c r="G65" s="1">
-        <v>7</v>
-      </c>
-      <c r="H65" s="1"/>
-    </row>
-    <row r="66" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A66" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1">
-        <v>8</v>
-      </c>
-      <c r="E66" s="1">
-        <v>8</v>
-      </c>
-      <c r="F66" s="1">
-        <v>8</v>
-      </c>
-      <c r="G66" s="1">
-        <v>8</v>
-      </c>
-      <c r="H66" s="1"/>
-    </row>
-    <row r="67" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A67" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1">
-        <v>9</v>
-      </c>
-      <c r="E67" s="1">
-        <v>9</v>
-      </c>
-      <c r="F67" s="1">
-        <v>9</v>
-      </c>
-      <c r="G67" s="1">
-        <v>9</v>
-      </c>
-      <c r="H67" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
